--- a/R_PROJET_VALIDR_ASSAY/data_valid2.xlsx
+++ b/R_PROJET_VALIDR_ASSAY/data_valid2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredericmarcon/Library/Mobile Documents/com~apple~CloudDocs/DATA_R/R_PROJET_VALIDER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredericmarcon/Library/Mobile Documents/com~apple~CloudDocs/DATA_R/R_PROJET_VALIDER/R_VALIDR/R_PROJET_VALIDR_ASSAY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF895F-F460-5D47-9EC5-DE8AFA8802E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA45AF-8244-244D-B9C8-F15C53F6C277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5.0000000000000001E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="G2">
         <v>3057</v>
